--- a/xtt_demo/08-01_R.xlsx
+++ b/xtt_demo/08-01_R.xlsx
@@ -952,52 +952,52 @@
       <c r="D8" s="20"/>
       <c r="E8" s="22"/>
       <c r="F8" s="14">
-        <v>44010.000000000000</v>
+        <v>44013.000000000000</v>
       </c>
       <c r="G8" s="14">
-        <v>44010.000000000000</v>
+        <v>44013.000000000000</v>
       </c>
       <c r="H8" s="14">
-        <v>44010.000000000000</v>
+        <v>44013.000000000000</v>
       </c>
       <c r="I8" s="14">
-        <v>44010.000000000000</v>
+        <v>44013.000000000000</v>
       </c>
       <c r="J8" s="14">
-        <v>44010.000000000000</v>
+        <v>44013.000000000000</v>
       </c>
       <c r="K8" s="22"/>
       <c r="L8" s="14">
-        <v>44013.000000000000</v>
+        <v>44016.000000000000</v>
       </c>
       <c r="M8" s="14">
-        <v>44013.000000000000</v>
+        <v>44016.000000000000</v>
       </c>
       <c r="N8" s="14">
-        <v>44013.000000000000</v>
+        <v>44016.000000000000</v>
       </c>
       <c r="O8" s="14">
-        <v>44013.000000000000</v>
+        <v>44016.000000000000</v>
       </c>
       <c r="P8" s="14">
-        <v>44013.000000000000</v>
+        <v>44016.000000000000</v>
       </c>
       <c r="Q8" s="22"/>
       <c r="R8" s="14">
-        <v>44011.000000000000</v>
+        <v>44014.000000000000</v>
       </c>
       <c r="S8" s="14">
-        <v>44011.000000000000</v>
+        <v>44014.000000000000</v>
       </c>
       <c r="T8" s="14">
-        <v>44011.000000000000</v>
+        <v>44014.000000000000</v>
       </c>
       <c r="U8" s="22"/>
       <c r="V8" s="14">
-        <v>44012.000000000000</v>
+        <v>44015.000000000000</v>
       </c>
       <c r="W8" s="14">
-        <v>44012.000000000000</v>
+        <v>44015.000000000000</v>
       </c>
     </row>
     <row r="9">
@@ -1536,49 +1536,49 @@
         <v>18</v>
       </c>
       <c r="D11" s="11">
-        <v>44010.000000000000</v>
+        <v>44013.000000000000</v>
       </c>
       <c r="E11" s="11">
+        <v>44016.000000000000</v>
+      </c>
+      <c r="F11" s="11">
         <v>44013.000000000000</v>
       </c>
-      <c r="F11" s="11">
-        <v>44010.000000000000</v>
-      </c>
       <c r="G11" s="11">
-        <v>44010.000000000000</v>
+        <v>44013.000000000000</v>
       </c>
       <c r="H11" s="11">
+        <v>44016.000000000000</v>
+      </c>
+      <c r="I11" s="11">
         <v>44013.000000000000</v>
       </c>
-      <c r="I11" s="11">
-        <v>44010.000000000000</v>
-      </c>
       <c r="J11" s="11">
-        <v>44010.000000000000</v>
+        <v>44013.000000000000</v>
       </c>
       <c r="K11" s="11">
-        <v>44013.000000000000</v>
+        <v>44016.000000000000</v>
       </c>
       <c r="L11" s="11">
-        <v>44011.000000000000</v>
+        <v>44014.000000000000</v>
       </c>
       <c r="M11" s="11">
-        <v>44012.000000000000</v>
+        <v>44015.000000000000</v>
       </c>
       <c r="N11" s="11">
-        <v>44013.000000000000</v>
+        <v>44016.000000000000</v>
       </c>
       <c r="O11" s="11">
-        <v>44011.000000000000</v>
+        <v>44014.000000000000</v>
       </c>
       <c r="P11" s="11">
-        <v>44012.000000000000</v>
+        <v>44015.000000000000</v>
       </c>
       <c r="Q11" s="11">
-        <v>44013.000000000000</v>
+        <v>44016.000000000000</v>
       </c>
       <c r="R11" s="11">
-        <v>44011.000000000000</v>
+        <v>44014.000000000000</v>
       </c>
       <c r="S11" s="1"/>
     </row>

--- a/xtt_demo/08-01_R.xlsx
+++ b/xtt_demo/08-01_R.xlsx
@@ -952,52 +952,52 @@
       <c r="D8" s="20"/>
       <c r="E8" s="22"/>
       <c r="F8" s="14">
-        <v>44013.000000000000</v>
+        <v>44016.000000000000</v>
       </c>
       <c r="G8" s="14">
-        <v>44013.000000000000</v>
+        <v>44016.000000000000</v>
       </c>
       <c r="H8" s="14">
-        <v>44013.000000000000</v>
+        <v>44016.000000000000</v>
       </c>
       <c r="I8" s="14">
-        <v>44013.000000000000</v>
+        <v>44016.000000000000</v>
       </c>
       <c r="J8" s="14">
-        <v>44013.000000000000</v>
+        <v>44016.000000000000</v>
       </c>
       <c r="K8" s="22"/>
       <c r="L8" s="14">
-        <v>44016.000000000000</v>
+        <v>44019.000000000000</v>
       </c>
       <c r="M8" s="14">
-        <v>44016.000000000000</v>
+        <v>44019.000000000000</v>
       </c>
       <c r="N8" s="14">
-        <v>44016.000000000000</v>
+        <v>44019.000000000000</v>
       </c>
       <c r="O8" s="14">
-        <v>44016.000000000000</v>
+        <v>44019.000000000000</v>
       </c>
       <c r="P8" s="14">
-        <v>44016.000000000000</v>
+        <v>44019.000000000000</v>
       </c>
       <c r="Q8" s="22"/>
       <c r="R8" s="14">
-        <v>44014.000000000000</v>
+        <v>44017.000000000000</v>
       </c>
       <c r="S8" s="14">
-        <v>44014.000000000000</v>
+        <v>44017.000000000000</v>
       </c>
       <c r="T8" s="14">
-        <v>44014.000000000000</v>
+        <v>44017.000000000000</v>
       </c>
       <c r="U8" s="22"/>
       <c r="V8" s="14">
-        <v>44015.000000000000</v>
+        <v>44018.000000000000</v>
       </c>
       <c r="W8" s="14">
-        <v>44015.000000000000</v>
+        <v>44018.000000000000</v>
       </c>
     </row>
     <row r="9">
@@ -1536,49 +1536,49 @@
         <v>18</v>
       </c>
       <c r="D11" s="11">
-        <v>44013.000000000000</v>
+        <v>44016.000000000000</v>
       </c>
       <c r="E11" s="11">
+        <v>44019.000000000000</v>
+      </c>
+      <c r="F11" s="11">
         <v>44016.000000000000</v>
       </c>
-      <c r="F11" s="11">
-        <v>44013.000000000000</v>
-      </c>
       <c r="G11" s="11">
-        <v>44013.000000000000</v>
+        <v>44016.000000000000</v>
       </c>
       <c r="H11" s="11">
+        <v>44019.000000000000</v>
+      </c>
+      <c r="I11" s="11">
         <v>44016.000000000000</v>
       </c>
-      <c r="I11" s="11">
-        <v>44013.000000000000</v>
-      </c>
       <c r="J11" s="11">
-        <v>44013.000000000000</v>
+        <v>44016.000000000000</v>
       </c>
       <c r="K11" s="11">
-        <v>44016.000000000000</v>
+        <v>44019.000000000000</v>
       </c>
       <c r="L11" s="11">
-        <v>44014.000000000000</v>
+        <v>44017.000000000000</v>
       </c>
       <c r="M11" s="11">
-        <v>44015.000000000000</v>
+        <v>44018.000000000000</v>
       </c>
       <c r="N11" s="11">
-        <v>44016.000000000000</v>
+        <v>44019.000000000000</v>
       </c>
       <c r="O11" s="11">
-        <v>44014.000000000000</v>
+        <v>44017.000000000000</v>
       </c>
       <c r="P11" s="11">
-        <v>44015.000000000000</v>
+        <v>44018.000000000000</v>
       </c>
       <c r="Q11" s="11">
-        <v>44016.000000000000</v>
+        <v>44019.000000000000</v>
       </c>
       <c r="R11" s="11">
-        <v>44014.000000000000</v>
+        <v>44017.000000000000</v>
       </c>
       <c r="S11" s="1"/>
     </row>

--- a/xtt_demo/08-01_R.xlsx
+++ b/xtt_demo/08-01_R.xlsx
@@ -952,52 +952,52 @@
       <c r="D8" s="20"/>
       <c r="E8" s="22"/>
       <c r="F8" s="14">
-        <v>44016.000000000000</v>
+        <v>44066.000000000000</v>
       </c>
       <c r="G8" s="14">
-        <v>44016.000000000000</v>
+        <v>44066.000000000000</v>
       </c>
       <c r="H8" s="14">
-        <v>44016.000000000000</v>
+        <v>44066.000000000000</v>
       </c>
       <c r="I8" s="14">
-        <v>44016.000000000000</v>
+        <v>44066.000000000000</v>
       </c>
       <c r="J8" s="14">
-        <v>44016.000000000000</v>
+        <v>44066.000000000000</v>
       </c>
       <c r="K8" s="22"/>
       <c r="L8" s="14">
-        <v>44019.000000000000</v>
+        <v>44069.000000000000</v>
       </c>
       <c r="M8" s="14">
-        <v>44019.000000000000</v>
+        <v>44069.000000000000</v>
       </c>
       <c r="N8" s="14">
-        <v>44019.000000000000</v>
+        <v>44069.000000000000</v>
       </c>
       <c r="O8" s="14">
-        <v>44019.000000000000</v>
+        <v>44069.000000000000</v>
       </c>
       <c r="P8" s="14">
-        <v>44019.000000000000</v>
+        <v>44069.000000000000</v>
       </c>
       <c r="Q8" s="22"/>
       <c r="R8" s="14">
-        <v>44017.000000000000</v>
+        <v>44067.000000000000</v>
       </c>
       <c r="S8" s="14">
-        <v>44017.000000000000</v>
+        <v>44067.000000000000</v>
       </c>
       <c r="T8" s="14">
-        <v>44017.000000000000</v>
+        <v>44067.000000000000</v>
       </c>
       <c r="U8" s="22"/>
       <c r="V8" s="14">
-        <v>44018.000000000000</v>
+        <v>44068.000000000000</v>
       </c>
       <c r="W8" s="14">
-        <v>44018.000000000000</v>
+        <v>44068.000000000000</v>
       </c>
     </row>
     <row r="9">
@@ -1536,49 +1536,49 @@
         <v>18</v>
       </c>
       <c r="D11" s="11">
-        <v>44016.000000000000</v>
+        <v>44066.000000000000</v>
       </c>
       <c r="E11" s="11">
-        <v>44019.000000000000</v>
+        <v>44069.000000000000</v>
       </c>
       <c r="F11" s="11">
-        <v>44016.000000000000</v>
+        <v>44066.000000000000</v>
       </c>
       <c r="G11" s="11">
-        <v>44016.000000000000</v>
+        <v>44066.000000000000</v>
       </c>
       <c r="H11" s="11">
-        <v>44019.000000000000</v>
+        <v>44069.000000000000</v>
       </c>
       <c r="I11" s="11">
-        <v>44016.000000000000</v>
+        <v>44066.000000000000</v>
       </c>
       <c r="J11" s="11">
-        <v>44016.000000000000</v>
+        <v>44066.000000000000</v>
       </c>
       <c r="K11" s="11">
-        <v>44019.000000000000</v>
+        <v>44069.000000000000</v>
       </c>
       <c r="L11" s="11">
-        <v>44017.000000000000</v>
+        <v>44067.000000000000</v>
       </c>
       <c r="M11" s="11">
-        <v>44018.000000000000</v>
+        <v>44068.000000000000</v>
       </c>
       <c r="N11" s="11">
-        <v>44019.000000000000</v>
+        <v>44069.000000000000</v>
       </c>
       <c r="O11" s="11">
-        <v>44017.000000000000</v>
+        <v>44067.000000000000</v>
       </c>
       <c r="P11" s="11">
-        <v>44018.000000000000</v>
+        <v>44068.000000000000</v>
       </c>
       <c r="Q11" s="11">
-        <v>44019.000000000000</v>
+        <v>44069.000000000000</v>
       </c>
       <c r="R11" s="11">
-        <v>44017.000000000000</v>
+        <v>44067.000000000000</v>
       </c>
       <c r="S11" s="1"/>
     </row>

--- a/xtt_demo/08-01_R.xlsx
+++ b/xtt_demo/08-01_R.xlsx
@@ -952,52 +952,52 @@
       <c r="D8" s="20"/>
       <c r="E8" s="22"/>
       <c r="F8" s="14">
-        <v>44066.000000000000</v>
+        <v>44067.000000000000</v>
       </c>
       <c r="G8" s="14">
-        <v>44066.000000000000</v>
+        <v>44067.000000000000</v>
       </c>
       <c r="H8" s="14">
-        <v>44066.000000000000</v>
+        <v>44067.000000000000</v>
       </c>
       <c r="I8" s="14">
-        <v>44066.000000000000</v>
+        <v>44067.000000000000</v>
       </c>
       <c r="J8" s="14">
-        <v>44066.000000000000</v>
+        <v>44067.000000000000</v>
       </c>
       <c r="K8" s="22"/>
       <c r="L8" s="14">
-        <v>44069.000000000000</v>
+        <v>44070.000000000000</v>
       </c>
       <c r="M8" s="14">
-        <v>44069.000000000000</v>
+        <v>44070.000000000000</v>
       </c>
       <c r="N8" s="14">
-        <v>44069.000000000000</v>
+        <v>44070.000000000000</v>
       </c>
       <c r="O8" s="14">
-        <v>44069.000000000000</v>
+        <v>44070.000000000000</v>
       </c>
       <c r="P8" s="14">
-        <v>44069.000000000000</v>
+        <v>44070.000000000000</v>
       </c>
       <c r="Q8" s="22"/>
       <c r="R8" s="14">
-        <v>44067.000000000000</v>
+        <v>44068.000000000000</v>
       </c>
       <c r="S8" s="14">
-        <v>44067.000000000000</v>
+        <v>44068.000000000000</v>
       </c>
       <c r="T8" s="14">
-        <v>44067.000000000000</v>
+        <v>44068.000000000000</v>
       </c>
       <c r="U8" s="22"/>
       <c r="V8" s="14">
-        <v>44068.000000000000</v>
+        <v>44069.000000000000</v>
       </c>
       <c r="W8" s="14">
-        <v>44068.000000000000</v>
+        <v>44069.000000000000</v>
       </c>
     </row>
     <row r="9">
@@ -1329,7 +1329,6 @@
       </c>
     </row>
     <row r="3">
-      <c r="C3"/>
       <c r="D3" s="4" t="s"/>
       <c r="E3" s="4" t="s"/>
       <c r="F3" s="4" t="s"/>
@@ -1536,49 +1535,49 @@
         <v>18</v>
       </c>
       <c r="D11" s="11">
-        <v>44066.000000000000</v>
+        <v>44067.000000000000</v>
       </c>
       <c r="E11" s="11">
+        <v>44070.000000000000</v>
+      </c>
+      <c r="F11" s="11">
+        <v>44067.000000000000</v>
+      </c>
+      <c r="G11" s="11">
+        <v>44067.000000000000</v>
+      </c>
+      <c r="H11" s="11">
+        <v>44070.000000000000</v>
+      </c>
+      <c r="I11" s="11">
+        <v>44067.000000000000</v>
+      </c>
+      <c r="J11" s="11">
+        <v>44067.000000000000</v>
+      </c>
+      <c r="K11" s="11">
+        <v>44070.000000000000</v>
+      </c>
+      <c r="L11" s="11">
+        <v>44068.000000000000</v>
+      </c>
+      <c r="M11" s="11">
         <v>44069.000000000000</v>
       </c>
-      <c r="F11" s="11">
-        <v>44066.000000000000</v>
-      </c>
-      <c r="G11" s="11">
-        <v>44066.000000000000</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="N11" s="11">
+        <v>44070.000000000000</v>
+      </c>
+      <c r="O11" s="11">
+        <v>44068.000000000000</v>
+      </c>
+      <c r="P11" s="11">
         <v>44069.000000000000</v>
       </c>
-      <c r="I11" s="11">
-        <v>44066.000000000000</v>
-      </c>
-      <c r="J11" s="11">
-        <v>44066.000000000000</v>
-      </c>
-      <c r="K11" s="11">
-        <v>44069.000000000000</v>
-      </c>
-      <c r="L11" s="11">
-        <v>44067.000000000000</v>
-      </c>
-      <c r="M11" s="11">
+      <c r="Q11" s="11">
+        <v>44070.000000000000</v>
+      </c>
+      <c r="R11" s="11">
         <v>44068.000000000000</v>
-      </c>
-      <c r="N11" s="11">
-        <v>44069.000000000000</v>
-      </c>
-      <c r="O11" s="11">
-        <v>44067.000000000000</v>
-      </c>
-      <c r="P11" s="11">
-        <v>44068.000000000000</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>44069.000000000000</v>
-      </c>
-      <c r="R11" s="11">
-        <v>44067.000000000000</v>
       </c>
       <c r="S11" s="1"/>
     </row>

--- a/xtt_demo/08-01_R.xlsx
+++ b/xtt_demo/08-01_R.xlsx
@@ -781,18 +781,18 @@
     <col customWidth="1" hidden="1" max="7" min="7" outlineLevel="1" width="18.140625"/>
     <col customWidth="1" hidden="1" max="8" min="8" outlineLevel="1" width="18.140625"/>
     <col customWidth="1" hidden="1" max="9" min="9" outlineLevel="1" width="18.140625"/>
-    <col customWidth="1" hidden="1" max="10" min="10" outlineLevel="1" width="18.140625"/>
-    <col collapsed="1" customWidth="1" max="11" min="11" width="27.28515625"/>
+    <col collapsed="1" customWidth="1" max="10" min="10" width="27.28515625"/>
+    <col customWidth="1" hidden="1" max="11" min="11" outlineLevel="1" width="18.140625"/>
     <col customWidth="1" hidden="1" max="12" min="12" outlineLevel="1" width="18.140625"/>
     <col customWidth="1" hidden="1" max="13" min="13" outlineLevel="1" width="18.140625"/>
     <col customWidth="1" hidden="1" max="14" min="14" outlineLevel="1" width="18.140625"/>
     <col customWidth="1" hidden="1" max="15" min="15" outlineLevel="1" width="18.140625"/>
-    <col customWidth="1" hidden="1" max="16" min="16" outlineLevel="1" width="18.140625"/>
-    <col collapsed="1" customWidth="1" max="17" min="17" width="27.28515625"/>
+    <col collapsed="1" customWidth="1" max="16" min="16" width="27.28515625"/>
+    <col customWidth="1" hidden="1" max="17" min="17" outlineLevel="1" width="18.140625"/>
     <col customWidth="1" hidden="1" max="18" min="18" outlineLevel="1" width="18.140625"/>
-    <col customWidth="1" hidden="1" max="19" min="19" outlineLevel="1" width="18.140625"/>
+    <col collapsed="1" customWidth="1" max="19" min="19" width="27.28515625"/>
     <col customWidth="1" hidden="1" max="20" min="20" outlineLevel="1" width="18.140625"/>
-    <col collapsed="1" customWidth="1" max="21" min="21" width="27.28515625"/>
+    <col customWidth="1" hidden="1" max="21" min="21" outlineLevel="1" width="18.140625"/>
     <col customWidth="1" hidden="1" max="22" min="22" outlineLevel="1" width="18.140625"/>
     <col customWidth="1" hidden="1" max="23" min="23" outlineLevel="1" width="18.140625"/>
   </cols>
@@ -839,55 +839,55 @@
         <v>2</v>
       </c>
       <c r="G6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="17" t="s">
+      <c r="R6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="S6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="17" t="s">
+      <c r="T6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="V6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="R6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" s="17" t="s">
+      <c r="W6" s="17" t="s">
         <v>8</v>
-      </c>
-      <c r="U6" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="V6" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -897,52 +897,52 @@
       <c r="D7" s="19"/>
       <c r="E7" s="22"/>
       <c r="F7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="22"/>
+      <c r="K7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="22"/>
+      <c r="T7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="U7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="V7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="W7" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="W7" s="16" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -952,52 +952,52 @@
       <c r="D8" s="20"/>
       <c r="E8" s="22"/>
       <c r="F8" s="14">
-        <v>44067.000000000000</v>
+        <v>44125.000000000000</v>
       </c>
       <c r="G8" s="14">
-        <v>44067.000000000000</v>
+        <v>44125.000000000000</v>
       </c>
       <c r="H8" s="14">
-        <v>44067.000000000000</v>
+        <v>44125.000000000000</v>
       </c>
       <c r="I8" s="14">
-        <v>44067.000000000000</v>
-      </c>
-      <c r="J8" s="14">
-        <v>44067.000000000000</v>
-      </c>
-      <c r="K8" s="22"/>
+        <v>44125.000000000000</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="14">
+        <v>44123.000000000000</v>
+      </c>
       <c r="L8" s="14">
-        <v>44070.000000000000</v>
+        <v>44123.000000000000</v>
       </c>
       <c r="M8" s="14">
-        <v>44070.000000000000</v>
+        <v>44123.000000000000</v>
       </c>
       <c r="N8" s="14">
-        <v>44070.000000000000</v>
+        <v>44123.000000000000</v>
       </c>
       <c r="O8" s="14">
-        <v>44070.000000000000</v>
-      </c>
-      <c r="P8" s="14">
-        <v>44070.000000000000</v>
-      </c>
-      <c r="Q8" s="22"/>
+        <v>44123.000000000000</v>
+      </c>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="14">
+        <v>44124.000000000000</v>
+      </c>
       <c r="R8" s="14">
-        <v>44068.000000000000</v>
-      </c>
-      <c r="S8" s="14">
-        <v>44068.000000000000</v>
-      </c>
+        <v>44124.000000000000</v>
+      </c>
+      <c r="S8" s="22"/>
       <c r="T8" s="14">
-        <v>44068.000000000000</v>
-      </c>
-      <c r="U8" s="22"/>
+        <v>44122.000000000000</v>
+      </c>
+      <c r="U8" s="14">
+        <v>44122.000000000000</v>
+      </c>
       <c r="V8" s="14">
-        <v>44069.000000000000</v>
+        <v>44122.000000000000</v>
       </c>
       <c r="W8" s="14">
-        <v>44069.000000000000</v>
+        <v>44122.000000000000</v>
       </c>
     </row>
     <row r="9">
@@ -1005,64 +1005,64 @@
         <v>28</v>
       </c>
       <c r="D9" s="29">
-        <v>68990.07</v>
+        <v>56134.86</v>
       </c>
       <c r="E9" s="28">
-        <v>23852.24</v>
+        <v>25529.04</v>
       </c>
       <c r="F9" s="27">
-        <v>6758.57</v>
+        <v>5971.44</v>
       </c>
       <c r="G9" s="27">
-        <v>6836.72</v>
+        <v>9476.79</v>
       </c>
       <c r="H9" s="27">
-        <v>4038.64</v>
+        <v>4604.00</v>
       </c>
       <c r="I9" s="27">
-        <v>5746.69</v>
-      </c>
-      <c r="J9" s="27">
-        <v>471.62</v>
-      </c>
-      <c r="K9" s="28">
-        <v>24433.62</v>
+        <v>5476.81</v>
+      </c>
+      <c r="J9" s="28">
+        <v>18771.63</v>
+      </c>
+      <c r="K9" s="27">
+        <v>2276.75</v>
       </c>
       <c r="L9" s="27">
-        <v>982.68</v>
+        <v>2159.71</v>
       </c>
       <c r="M9" s="27">
-        <v>7630.05</v>
+        <v>5451.87</v>
       </c>
       <c r="N9" s="27">
-        <v>6001.36</v>
+        <v>1196.35</v>
       </c>
       <c r="O9" s="27">
-        <v>8972.09</v>
-      </c>
-      <c r="P9" s="27">
-        <v>847.44</v>
-      </c>
-      <c r="Q9" s="28">
-        <v>16385.46</v>
+        <v>7686.95</v>
+      </c>
+      <c r="P9" s="28">
+        <v>5521.68</v>
+      </c>
+      <c r="Q9" s="27">
+        <v>3031.38</v>
       </c>
       <c r="R9" s="27">
-        <v>9950.90</v>
-      </c>
-      <c r="S9" s="27">
-        <v>214.52</v>
+        <v>2490.30</v>
+      </c>
+      <c r="S9" s="28">
+        <v>6312.51</v>
       </c>
       <c r="T9" s="27">
-        <v>6220.04</v>
-      </c>
-      <c r="U9" s="28">
-        <v>4318.75</v>
+        <v>689.66</v>
+      </c>
+      <c r="U9" s="27">
+        <v>4573.55</v>
       </c>
       <c r="V9" s="27">
-        <v>153.90</v>
+        <v>978.18</v>
       </c>
       <c r="W9" s="27">
-        <v>4164.85</v>
+        <v>71.12</v>
       </c>
     </row>
     <row r="10">
@@ -1073,18 +1073,18 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="27"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
       <c r="N10" s="27"/>
       <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
+      <c r="S10" s="28"/>
       <c r="T10" s="27"/>
-      <c r="U10" s="28"/>
+      <c r="U10" s="27"/>
       <c r="V10" s="27"/>
       <c r="W10" s="27"/>
     </row>
@@ -1093,64 +1093,64 @@
         <v>29</v>
       </c>
       <c r="D11" s="29">
-        <v>90561.65</v>
+        <v>53889.93</v>
       </c>
       <c r="E11" s="28">
-        <v>29609.68</v>
+        <v>14636.76</v>
       </c>
       <c r="F11" s="27">
-        <v>5563.86</v>
+        <v>5021.46</v>
       </c>
       <c r="G11" s="27">
-        <v>7795.09</v>
+        <v>3683.27</v>
       </c>
       <c r="H11" s="27">
-        <v>7742.85</v>
+        <v>5525.85</v>
       </c>
       <c r="I11" s="27">
-        <v>1997.34</v>
-      </c>
-      <c r="J11" s="27">
-        <v>6510.54</v>
-      </c>
-      <c r="K11" s="28">
-        <v>26763.06</v>
+        <v>406.18</v>
+      </c>
+      <c r="J11" s="28">
+        <v>17290.43</v>
+      </c>
+      <c r="K11" s="27">
+        <v>7717.20</v>
       </c>
       <c r="L11" s="27">
-        <v>9927.07</v>
+        <v>2260.94</v>
       </c>
       <c r="M11" s="27">
-        <v>6014.38</v>
+        <v>4061.85</v>
       </c>
       <c r="N11" s="27">
-        <v>7509.60</v>
+        <v>522.46</v>
       </c>
       <c r="O11" s="27">
-        <v>1796.79</v>
-      </c>
-      <c r="P11" s="27">
-        <v>1515.22</v>
-      </c>
-      <c r="Q11" s="28">
-        <v>22451.86</v>
+        <v>2727.98</v>
+      </c>
+      <c r="P11" s="28">
+        <v>6834.03</v>
+      </c>
+      <c r="Q11" s="27">
+        <v>445.22</v>
       </c>
       <c r="R11" s="27">
-        <v>7487.59</v>
-      </c>
-      <c r="S11" s="27">
-        <v>8481.91</v>
+        <v>6388.81</v>
+      </c>
+      <c r="S11" s="28">
+        <v>15128.71</v>
       </c>
       <c r="T11" s="27">
-        <v>6482.36</v>
-      </c>
-      <c r="U11" s="28">
-        <v>11737.05</v>
+        <v>518.60</v>
+      </c>
+      <c r="U11" s="27">
+        <v>5436.00</v>
       </c>
       <c r="V11" s="27">
-        <v>7473.27</v>
+        <v>295.55</v>
       </c>
       <c r="W11" s="27">
-        <v>4263.78</v>
+        <v>8878.56</v>
       </c>
     </row>
     <row r="12">
@@ -1161,18 +1161,18 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="27"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
       <c r="N12" s="27"/>
       <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="27"/>
       <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
+      <c r="S12" s="28"/>
       <c r="T12" s="27"/>
-      <c r="U12" s="28"/>
+      <c r="U12" s="27"/>
       <c r="V12" s="27"/>
       <c r="W12" s="27"/>
     </row>
@@ -1198,10 +1198,10 @@
       <c r="I13" s="15" t="e">
         <f>$I9 + $I11</f>
       </c>
-      <c r="J13" s="15" t="e">
+      <c r="J13" s="23" t="e">
         <f>$J9 + $J11</f>
       </c>
-      <c r="K13" s="23" t="e">
+      <c r="K13" s="15" t="e">
         <f>$K9 + $K11</f>
       </c>
       <c r="L13" s="15" t="e">
@@ -1216,22 +1216,22 @@
       <c r="O13" s="15" t="e">
         <f>$O9 + $O11</f>
       </c>
-      <c r="P13" s="15" t="e">
+      <c r="P13" s="23" t="e">
         <f>$P9 + $P11</f>
       </c>
-      <c r="Q13" s="23" t="e">
+      <c r="Q13" s="15" t="e">
         <f>$Q9 + $Q11</f>
       </c>
       <c r="R13" s="15" t="e">
         <f>$R9 + $R11</f>
       </c>
-      <c r="S13" s="15" t="e">
+      <c r="S13" s="23" t="e">
         <f>$S9 + $S11</f>
       </c>
       <c r="T13" s="15" t="e">
         <f>$T9 + $T11</f>
       </c>
-      <c r="U13" s="23" t="e">
+      <c r="U13" s="15" t="e">
         <f>$U9 + $U11</f>
       </c>
       <c r="V13" s="15" t="e">
@@ -1484,49 +1484,49 @@
         <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="N10" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S10" s="1"/>
     </row>
@@ -1535,49 +1535,49 @@
         <v>18</v>
       </c>
       <c r="D11" s="11">
-        <v>44067.000000000000</v>
+        <v>44125.000000000000</v>
       </c>
       <c r="E11" s="11">
-        <v>44070.000000000000</v>
+        <v>44123.000000000000</v>
       </c>
       <c r="F11" s="11">
-        <v>44067.000000000000</v>
+        <v>44124.000000000000</v>
       </c>
       <c r="G11" s="11">
-        <v>44067.000000000000</v>
+        <v>44125.000000000000</v>
       </c>
       <c r="H11" s="11">
-        <v>44070.000000000000</v>
+        <v>44125.000000000000</v>
       </c>
       <c r="I11" s="11">
-        <v>44067.000000000000</v>
+        <v>44123.000000000000</v>
       </c>
       <c r="J11" s="11">
-        <v>44067.000000000000</v>
+        <v>44124.000000000000</v>
       </c>
       <c r="K11" s="11">
-        <v>44070.000000000000</v>
+        <v>44125.000000000000</v>
       </c>
       <c r="L11" s="11">
-        <v>44068.000000000000</v>
+        <v>44122.000000000000</v>
       </c>
       <c r="M11" s="11">
-        <v>44069.000000000000</v>
+        <v>44123.000000000000</v>
       </c>
       <c r="N11" s="11">
-        <v>44070.000000000000</v>
+        <v>44122.000000000000</v>
       </c>
       <c r="O11" s="11">
-        <v>44068.000000000000</v>
+        <v>44123.000000000000</v>
       </c>
       <c r="P11" s="11">
-        <v>44069.000000000000</v>
+        <v>44123.000000000000</v>
       </c>
       <c r="Q11" s="11">
-        <v>44070.000000000000</v>
+        <v>44122.000000000000</v>
       </c>
       <c r="R11" s="11">
-        <v>44068.000000000000</v>
+        <v>44122.000000000000</v>
       </c>
       <c r="S11" s="1"/>
     </row>
@@ -1586,49 +1586,49 @@
         <v>28</v>
       </c>
       <c r="D12" s="30">
-        <v>6758.57</v>
+        <v>5971.44</v>
       </c>
       <c r="E12" s="30">
-        <v>982.68</v>
+        <v>2276.75</v>
       </c>
       <c r="F12" s="30">
-        <v>6836.72</v>
+        <v>3031.38</v>
       </c>
       <c r="G12" s="30">
-        <v>4038.64</v>
+        <v>9476.79</v>
       </c>
       <c r="H12" s="30">
-        <v>7630.05</v>
+        <v>4604.00</v>
       </c>
       <c r="I12" s="30">
-        <v>5746.69</v>
+        <v>2159.71</v>
       </c>
       <c r="J12" s="30">
-        <v>471.62</v>
+        <v>2490.30</v>
       </c>
       <c r="K12" s="30">
-        <v>6001.36</v>
+        <v>5476.81</v>
       </c>
       <c r="L12" s="30">
-        <v>9950.90</v>
+        <v>689.66</v>
       </c>
       <c r="M12" s="30">
-        <v>153.90</v>
+        <v>5451.87</v>
       </c>
       <c r="N12" s="30">
-        <v>8972.09</v>
+        <v>4573.55</v>
       </c>
       <c r="O12" s="30">
-        <v>214.52</v>
+        <v>1196.35</v>
       </c>
       <c r="P12" s="30">
-        <v>4164.85</v>
+        <v>7686.95</v>
       </c>
       <c r="Q12" s="30">
-        <v>847.44</v>
+        <v>978.18</v>
       </c>
       <c r="R12" s="30">
-        <v>6220.04</v>
+        <v>71.12</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>19</v>
@@ -1660,49 +1660,49 @@
         <v>29</v>
       </c>
       <c r="D14" s="30">
-        <v>5563.86</v>
+        <v>5021.46</v>
       </c>
       <c r="E14" s="30">
-        <v>9927.07</v>
+        <v>7717.20</v>
       </c>
       <c r="F14" s="30">
-        <v>7795.09</v>
+        <v>445.22</v>
       </c>
       <c r="G14" s="30">
-        <v>7742.85</v>
+        <v>3683.27</v>
       </c>
       <c r="H14" s="30">
-        <v>6014.38</v>
+        <v>5525.85</v>
       </c>
       <c r="I14" s="30">
-        <v>1997.34</v>
+        <v>2260.94</v>
       </c>
       <c r="J14" s="30">
-        <v>6510.54</v>
+        <v>6388.81</v>
       </c>
       <c r="K14" s="30">
-        <v>7509.60</v>
+        <v>406.18</v>
       </c>
       <c r="L14" s="30">
-        <v>7487.59</v>
+        <v>518.60</v>
       </c>
       <c r="M14" s="30">
-        <v>7473.27</v>
+        <v>4061.85</v>
       </c>
       <c r="N14" s="30">
-        <v>1796.79</v>
+        <v>5436.00</v>
       </c>
       <c r="O14" s="30">
-        <v>8481.91</v>
+        <v>522.46</v>
       </c>
       <c r="P14" s="30">
-        <v>4263.78</v>
+        <v>2727.98</v>
       </c>
       <c r="Q14" s="30">
-        <v>1515.22</v>
+        <v>295.55</v>
       </c>
       <c r="R14" s="30">
-        <v>6482.36</v>
+        <v>8878.56</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>19</v>
